--- a/src/test/resources/testdata/SyntaxHRMSBatch12.xlsx
+++ b/src/test/resources/testdata/SyntaxHRMSBatch12.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johna\Desktop\Excel Spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johna\IdeaProjects\CucumberFrameworkBatch12\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36C896E-1902-49AF-8449-0B33403809E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F5A3C4-046E-4520-B648-5489B8B1156D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27345" yWindow="2550" windowWidth="19920" windowHeight="9750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EmployeeData" sheetId="1" r:id="rId1"/>
@@ -54,9 +54,6 @@
     <t>Dell</t>
   </si>
   <si>
-    <t>crisulms123</t>
-  </si>
-  <si>
     <t>Hum@nhrm123</t>
   </si>
   <si>
@@ -69,16 +66,19 @@
     <t>Lee</t>
   </si>
   <si>
-    <t>sudden987</t>
-  </si>
-  <si>
     <t>Soghar</t>
   </si>
   <si>
-    <t>soghar321</t>
-  </si>
-  <si>
     <t>C:\Users\johna\Downloads\199zpfi8dig2njpg.jpeg</t>
+  </si>
+  <si>
+    <t>crisulms123eeeee</t>
+  </si>
+  <si>
+    <t>soghar321eeee</t>
+  </si>
+  <si>
+    <t>sudden987eeeee</t>
   </si>
 </sst>
 </file>
@@ -400,7 +400,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -441,53 +441,53 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
